--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/6_Amasya_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/6_Amasya_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD9C7B1-19FE-4131-84DF-8543E875A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97DD5DFA-6D10-4C56-9710-F4756112BB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{CA61B7C4-9E7D-46DC-A28A-194C93C0EAA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{8DB5F724-CD91-4FCE-BE1D-7C609BA84146}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -950,15 +950,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AA599CFE-3455-48E5-8078-5751E2BB787C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{298F07C5-617A-46DC-9EF2-99A687F55019}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{13C30509-FE0B-4FB3-ACAD-1ACF62E02649}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{3E07ABAF-19CE-4942-837F-BFCE6C36CF44}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{D3C5D51D-7AD9-4C58-87C3-23395DD64B6C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{DD2116DC-4F0C-4088-8CB9-0B8B272D8FC1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{0E29BEBB-6FA3-40D6-94C4-A1A8EAB13071}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{29FAC3DA-CDBB-4F2F-A54F-8F81D75601BA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{9C9ED339-01EA-47BE-AA5D-5F4BE7CB2EB5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A807E041-2B57-484A-B13B-84782C1EAB58}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FFADCFEB-4D94-4A1A-B6E7-FF06C6CDC932}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{954103A4-9F1D-4116-A2F4-F286B5B4015F}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E2CED7C0-83AD-4169-9162-9B46C38CF2FE}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{992E515C-8573-477D-BA09-7DACBF776200}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{66245165-D1D3-40CD-894D-410427051288}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{92CE752C-016F-4B41-B533-2A23D1B20296}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{C561836B-200D-4613-9226-5BE6B03BAF33}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{C123A4C7-EDCC-430B-92FE-49CB77C80238}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3183529-6313-474B-8E41-C296CC15C406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B881391-17FF-4ABC-B7D4-B5F21FE22142}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2617,18 +2617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{144A9BDD-1F9B-4AEF-80FC-8E73CBC1DEB7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A874DD4E-D3FD-40DD-B1F0-7552413CD500}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7DCEC92-C5DC-48C3-8636-A6548B3A695E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2902E8F5-0A50-499B-B043-65710C986991}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A263D5BC-FF10-4C18-9546-BC2027EAF7E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB8FD2C8-7860-46DB-8E61-028F95CB907F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B73BAB0A-7A9C-42C4-B431-344D840F132E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B28B0C0-5C10-4A47-BBF3-5DDEACD67EE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF135658-4C08-446E-AC8A-5386C10980C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EA4B8F9-115E-4273-8210-C7509D095935}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6DEABB79-0ADE-415D-A0C6-22AEB2ACEAD9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F31C8315-131C-4FDC-9BA8-E580C8847713}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1A2E408-262C-4448-8317-ED8CA00454A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A377C2EB-C36F-4777-B6BF-C832E450AF8B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E8F409B-F222-460D-B463-8464030FF661}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{17A309B4-3B01-4D0C-93F4-307ACCD9AD70}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C260217-9D52-49C1-9C00-E717A6FBD68F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{613D7ED3-B74B-44FB-A3D1-A93BC313FECA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BACB1A4A-8B92-4659-8F5A-BC9EEFD56E57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{080E7753-FE8E-42EF-8DBE-6CE54C26C842}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF12C22F-D2B6-4B51-86B0-4A9BC01589A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8F1156B-FFEF-4C93-BEE8-6659CA86AA60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96578763-F438-4FF3-89CF-B28BF4E9689B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B49DA543-F9E9-46CD-92EB-C282F6C63755}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2641,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B6C9F4-5C6D-4FB8-BA44-0872D7CE9A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1885F516-AF25-4344-A4B2-AF0A66E5D745}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3925,18 +3925,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F72B5CA-2B35-4AFF-A8EE-B13BC77C119D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C0EB0A1-FCED-4A16-BC6C-A0CE213394CD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1BA91A2A-4E34-4EE8-8533-991AB23138BC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D8AC69F-F622-4A52-B8BB-048BC75598A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0CB2841-BD8F-468B-B390-5F3692CB4365}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB7FE3B8-A9D8-43E5-878F-1E28A3E24945}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1BF15F2-0A58-4C15-839B-02C1198D69B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19042533-2F0F-4DBF-9568-F5A6474EA5EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C5E8F45-E7AB-4459-A0A2-BB6B5045B00A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEF6F2C8-2AD4-45F0-A61B-70EA0F3ECDEE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EE27C2B-0DBD-4CE8-816F-ACDA2BDCA65E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B62B80F-5C67-4A82-AFDA-908BAAF3D38E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A956DE1-36C2-4B8C-8407-45D1CD6E10FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BB57229-E83A-4284-8D63-F1D3E5BD7752}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C657962D-CAAB-4586-B8EA-C964C85762FA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{27AF3787-D21F-4ABE-BC6F-FEB2EF5D8EB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F77582E-A1CE-4302-AA80-7FB5620F9B0F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48F4B34A-808D-473A-85A4-3C6B25CFE6B8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7268B6F7-559E-47D0-B7AB-4D1F38A00122}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C2EB3D0-40D6-446A-9CA2-1B9F0F8F02A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2526B607-0933-45FB-B3E9-7D0EE3467184}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC84F069-AA79-4F22-881D-D7265A3790AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5604CAF2-EE09-4BBA-9A38-14A718D113D8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DEEE050-21E5-47BA-81BA-7CB6AB28DD68}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3949,7 +3949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52930192-13A0-4C75-9F8C-585501677C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47575899-6B85-47E3-8A40-CC517CC298EC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5225,18 +5225,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E785ED97-38B6-4D2B-91C1-2825174C18DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B368160-6D47-4A0A-8AE1-49BD7C270300}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{956C3990-6254-478C-B6F5-19A30880C38D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{98B34ED3-F7A9-4519-9434-B482069A5BCF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42C16E66-DCA2-4467-8416-D988E9FC3428}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E150BA6-7773-46CA-BDB5-51A4D76CE4A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03FA9EB0-1AE5-4494-BC62-18659E9CCCDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B01496FD-3417-45E6-9872-2112F56BC699}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71F60389-4792-4E91-9DF9-9D20B17F144D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6012D9E5-0062-4EB9-A62B-1C227A204D5A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3624DC20-DCD4-44EF-82A6-51457CEAF91E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB8355C0-4F81-4516-AD23-053A4AF01A6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{238D666E-DBA5-4605-AA38-66059283FCB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{495ED652-6E2A-4979-9F45-1CA409CB465E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{005D8327-4E20-40D6-9B03-6B06ECAF3BE9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F7975912-0A42-454E-823C-087FE753B08E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8F548DB5-2EAB-4AA0-9B54-5BEDF22E4CF5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE7E15AF-A789-4B76-9C71-D984CF24FF3F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F981F976-C01A-4BC0-8414-FEC9274C7602}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EEA3ABF6-D54B-43A5-8EAC-BED5424004FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99622D98-8CF9-4FF3-814F-985598E9A9E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FEA62C85-DCF3-485D-9040-D1FECDFADBBA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4080774-3F2D-4B2D-B547-C74799F56DB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC2F2C0C-319F-4F3B-A0B6-C54CA4B06FB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5249,7 +5249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DAC1DC-458E-4235-B1B9-7F48A0ABC647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5BE67A-C3F3-46F5-BF95-282A948E46C4}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6519,18 +6519,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFEA3369-59E0-45E9-BE93-A24411185F47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB7405BC-B800-47AD-8722-2A08EFA230F3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{57C65170-0DF8-4C30-B692-505967416B77}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A2FF815-52E4-4C4F-B083-8F58D3BF17FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E919AAD-B5B4-4821-BEDA-9308D2790F17}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{653A4A67-43AC-4116-8921-E64F32485EE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86947499-A926-4782-914F-DBD4E129C86E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A57F0457-9AF4-49B9-B548-7A3473CE15D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{455CFD19-7443-4496-902A-1BA82ECFFA04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6CB2FFCF-37FF-4791-8CFC-391325EB29DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8B661D8-5BB2-4D63-994B-AFBF33E69C7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A566250-8EA9-40C3-9E90-4A42AAF9A2AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3A085C7-5C76-40F4-A72F-A43E6975782C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB1213DB-99AE-4918-8F16-D4AA7338FAB2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE4C2E5B-AB83-4E6D-BC72-DD5A08F18F7F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D95DCF8-9FD7-4010-922E-F32A650EE4CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C758FAD4-4771-4071-95DE-0426E569F6EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B14116A2-C669-456A-9A37-937E0F34F7D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72C526C0-7389-421E-9666-C2D4ADF97943}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8420ABC-2263-4ABB-82B8-D45E91A9EE42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2657D62F-2AC3-4D77-AE5D-56A3D8317129}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{706A236F-1F76-4F12-80F8-49BA063ECF9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0409AEAF-7C19-469C-B42C-390EC72197FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A596F2F-5A96-448A-9960-0F136DAC07F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6543,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E315A84-C6E9-400F-9EDA-82FDB631CB52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823C7525-A3AB-4975-9F78-06604718E223}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7830,18 +7830,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26DBDA9A-5803-44F3-8430-1556B8848249}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DA14A2C-F8C0-470A-8CF0-DF1DA5ABCCE5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F1C71BC-2BA9-4895-9D4F-20E1B6FA6DA0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D55F0973-C7A5-4305-8F02-205EF9A8F268}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{394D3D5A-98EC-4BC8-AFB5-3279C983F6DE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6556D00-F637-4E7E-A82E-76DB38B000EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F753646-7D15-4AD5-A7A8-C16BC8799411}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{720B3BFD-02E9-46AC-87A2-01F5294FAF22}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89D257BB-2732-48F4-A0F5-F5354F706E42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F0158A6-59AC-4CDD-86EE-E6B01C9FD13A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{935DD185-569C-47F4-B12A-70C79FE2087D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB8AA68C-5BED-49F2-BE44-50162E54DDEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1DE1F59-E02B-40C1-B0CA-6979E0086D0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40E5F9FE-4FBB-45FD-9547-22EAE2A33CBB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6BE4002B-F6A9-4641-9DB5-45E00E30B377}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E99B33DE-EAEC-40F1-A1E5-EEEE4FDC4D39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D56C9A8-2082-46D4-B613-D60F20243EE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39BBDC94-557A-4B13-85F0-8E3077B3109E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A31C1DB-B31C-48CB-AE98-FDBF29D598D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C4796D6-DC5D-4F48-82CB-6652AD6DC546}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01B275BA-4918-4B8F-80DF-00979647B51D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E54988F-035A-4C3A-B774-FA4547023878}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48160FD9-02B0-4EBA-8DA5-AF7C9ACF9276}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7111FB88-29B8-4816-AD4C-FB1606987939}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7854,7 +7854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794DB9D-E9C2-4183-ADB4-A44D3D03A8D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBBF14E-E323-4FBA-8304-B90667FBDCEC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9141,18 +9141,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B972D517-3765-48F7-A6C9-75B03C84FEE0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70FD15E2-15EF-4DBE-9796-DC2C75C24C63}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E48630E5-91CC-4439-AD20-9DFF0E11C654}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3273FB00-B84B-4556-94DD-7C33C3A839FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07B88694-71B2-4B81-960C-B46AA052769E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0DDD5E0A-0D1F-4699-AA56-26C931715619}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03214B74-12A0-4D60-9736-27471CEBFFA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4D11E6B-7443-4E72-9B50-8B8FECAFA5A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73CACD96-1411-467C-9889-66DEB2C39D67}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB78C2A8-AD39-46E3-A3DA-F9B42C780BC8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2276E0C0-9EED-438E-8964-4C2C9A3AECA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEB77F14-CD7E-41B0-BF94-8A3C89353BE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29684460-DB64-42BA-B203-712AAF66CF2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6ECC35F-2969-4EF2-AB43-6AAD1BCB47D6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B6C603B-5F91-481B-8E21-F92ED327352F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D847CFB-2E13-444F-909E-85F2ADF90D5A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5BD0516B-FF2F-4F82-BC2F-99DE83D6D8D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6983091-8E62-42FD-B570-C22986292ACE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65395A9A-DEEA-4867-9A51-B5E62357249A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5576B6FB-47CD-4024-AB12-56FDABF2F656}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E7F332E-A2C5-4C92-924A-6202D471E603}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E698051A-AB1F-477B-A218-D6E4BCE76C2B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02E3E7EC-E0AE-4EF0-959F-C210FFFA644E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{308F09E5-7954-47EE-898A-F207292CAA55}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9165,7 +9165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF58053A-4CEA-42FC-935A-A2F710C93301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701A7675-FD56-44EE-A671-6F950E2B6FEB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10452,18 +10452,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE1708F7-AD17-4AE4-8EE0-0B531E060FA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41782159-D822-4709-8343-AF29051D3E37}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EEB35681-BC99-447B-9B09-E6FC38329C5A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1A8848E-36BA-4C52-AD29-1F5D3E016588}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B915DE49-16A4-4A06-BE51-EDCE3C5336ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96CFAFBF-6208-43FE-B2F9-682916A8374D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7778C867-3976-4317-A785-70DD7ED6B63F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8A2A627-4115-4302-BF97-350FA7BC20D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F65A4EC8-EE78-4F33-8484-546F42ED42F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{577A2D8B-F219-4B66-8F68-E11D628E1A1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B134E381-FED6-4D23-A02E-D563065FB957}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{961E32C7-38F9-4B61-9ADC-E36059C2F308}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5983C4E-E1B7-47A7-8E4B-D9E223EAC372}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0BEEC9E-DD35-4F4D-A825-B01CB35F1434}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67EEFD7B-0E58-4C09-A314-D41137146FEA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E1CCAF3D-54BE-4DA6-A7D5-09380332B695}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AFF3BADD-5CCF-4032-A27D-3DC89551115F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0017286-35D5-4C17-9FCC-FCEC942EA493}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC1CCC32-0ADC-4496-B5A6-9B69E115BC06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07543A00-E8D1-43A8-A96C-63E0CB2B9226}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B43FE67-276F-4170-8FAE-AB3F284CC19C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD82A031-D422-4925-BDAB-846EDF9EA57E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20A1E3C3-51CC-433A-B97B-18CD46036FE5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1763B49-8F53-4265-AB23-31E54D94AAAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10476,7 +10476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46FE9-D9AB-4211-9676-3BAE6FEE42A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5B0863-2F75-4AF1-BDB9-B6C7BDD06C89}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11763,18 +11763,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E93734A-9E08-4760-86ED-F0BEFA754832}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3340BF9A-6BE2-479B-8626-9AF3A6446C26}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5C816D9-4B8D-4D9E-8557-F11974E0BC67}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{958224D8-FA63-4D3B-BA17-3B10B1109850}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{872A3C4B-2843-4ED8-94A6-4E0223CA12B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39DB21E1-7C31-4659-AE4F-304285BC1EE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE43CD1B-1B67-4C4D-BA9B-0A344F7F0994}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{326E6920-366E-44C0-B667-900F69C0ED55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C5E267B-CF7D-497F-9BAB-4A7F2BD19414}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96AFA620-DB41-4D40-9951-0471AFD72C02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F501CED-998A-4526-9EEB-B2054F5D3B7A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1785D8DC-A649-4105-A0BF-D382B14C9A10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54AA093A-9DBF-480F-8909-3174A07C1426}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E472A30D-3EB9-49FF-9910-CF94FEBDE053}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5917713A-59FA-4817-913F-40EF7D28FDD9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C9EF9145-113A-49E9-A2CE-77070836DC57}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{764BAC99-EEAC-4D78-93B8-007B4F4FEA7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B503E0F5-1E95-47DC-B2E8-3C39A04F108B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A163241-E0E5-4521-8CFD-972E6AF56548}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B77B2DFA-923E-4C01-8080-88FA07108737}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1912A4D5-2CCF-4B2B-BC6F-6ECBC3052A38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{341A2989-AC9E-474C-9D8E-92D06E730F40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B847EBD1-6B5C-467C-97D5-70504BA441F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70B797CD-7262-4BB5-8BE3-F9C812B1D7F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11787,7 +11787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D181A67-8BA7-42A7-99C6-71DB371F9599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6177D83-AC27-45D1-A647-D92949D765CC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13074,18 +13074,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDC4BFDD-5874-4FCC-844C-F0B04F33CFC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D3A7896-3115-4587-94A4-EEC5D7A76EA7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96914D5D-27C6-4D04-A60B-DBA586E04D6B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35454AD0-8E9B-4624-A57D-2E580C7D7E95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D68379D7-40A1-4D79-AAC8-CA937C19E792}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7534D663-1617-4DE4-8407-CF6A60E09014}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C76CC45-450D-44C2-B2BE-31604CFBF79C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77D95BF7-9D84-4C6B-A146-7E7A311CAB52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C005A2EA-8597-4739-88C4-25563123BBC1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20E8779C-B005-4325-A944-14BA4CA7A66E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F9E41DC-71E1-40C4-B15F-908B85C3F2F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AD5F14E-FEEF-4EE2-A416-8E08E61B268F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D96CA9A-65F7-4388-8BCA-5296D326D1DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B783213-04B9-4AE6-B706-4538B77EB472}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{279FD8B8-6DD6-4489-9C80-18735B1F20DF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{38F45859-E445-4CAE-B26C-3C9B80B220A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48160431-A0CD-4639-BC13-975B9BA55E1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DDCFD3C-1BA1-4B4D-B90C-B007D37CEA11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E44DFF2-2231-4300-AF60-A21F437A27AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01D3AE85-A998-4A9E-971F-C5B5669F2418}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F353887D-47F0-4048-92CF-81656729422C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B75C7F8-F8D7-418B-BB3F-46445C458AF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{900040DC-665A-4610-BE2D-3ACA4DFA0B03}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B26C818E-6D5C-42E1-8B46-3ACC46EBB669}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13098,7 +13098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6323176C-A9DA-4199-B70C-56936DB14D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2B52AE-5313-4B08-A2B8-5E0BDD7A7B5F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14381,18 +14381,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98FD37AE-4BDF-485F-9966-46CA2A252BF3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01948800-6C9E-4D15-B46E-7250279A9660}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{932A0274-26B2-478F-B21D-D1605AB1331F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC728D16-6B23-4E33-B26F-4972EB2075A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80FE87AA-E010-4CDE-9C7D-8DF0A98B12FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACBF2E7D-9D0F-44EC-9858-D63185EF6771}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83202606-BE52-40BF-B8D9-76D7E503052A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27EB73FD-3093-4ED9-8D79-B34B545401FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF8392C9-7707-4FD3-ADC4-D760685A84D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBAA256E-E6DA-4ABA-A276-4D2231018336}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6625F63A-7F9D-4F50-9153-8D27848299C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE4BF853-7508-4A7A-8CB1-578F0CEDE3AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37458E4C-D7B6-4AD3-8C02-761D15E0B1B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77D269CC-D237-4FA7-A28B-2EEB25BEFD8B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59EC561C-B16E-45DE-B647-B05610E91624}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB100703-14EC-4431-9DBC-0E804BF8C0E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D1FF783-7978-418D-8D1B-301E098992B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9FAE9B04-91C1-4FD0-BD6D-F190C3B1728E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96E36173-ED3D-46B4-880B-1E52246A3B45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68A9868E-DDDB-41BB-9232-F317256D7A06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99F9997B-1B08-45A6-8280-F15541ABC961}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24036F4A-6369-4A1D-A7C3-78D63606FE59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DAA592F-6809-46E6-B628-45618765AD96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C36A84C-15EE-43D1-A31C-40502C5DEBDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14405,7 +14405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7A04E-05F4-4B13-A2D7-ACD592233887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46A7855-61EE-43FA-B971-48B354DDB030}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15688,18 +15688,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50E9778B-B502-4120-A73A-DA213049C7B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14A99A8C-9A8C-458B-B0D9-2B35056FCE32}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFFBF475-1CC6-406E-9FA9-F5C297A9925B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E88C041F-1086-4880-8BDF-FC68D81097FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{051A1644-8CF7-4F81-A9BB-6AD8A4887BCD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CDF6D34-8628-4B35-89A4-C892F1CCD536}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{615C9A4D-823B-4A55-9576-CB67515D5889}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5C00115-B6AC-4E5B-B108-892233176115}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C34C502-17EA-41D4-81D6-7F327C033B8E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4FB5FC08-3F14-40D9-9A01-620151AA4BA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC793FCD-F735-447B-969C-809DD0B0FE94}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E97775C1-F11E-4298-908C-47329D37D8B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B81DD6AA-2EDB-444F-928F-F80EE96EBCFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03129130-8098-47CE-A208-53A615FBBFF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ACDE9E70-EAD9-4608-AF8A-3552C3FAD3A6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E7981EBA-7C1D-4113-8975-3AA1104E389D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18C886EE-6671-45B7-B956-1A7ACF0B6EE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1EAAE16A-518F-4164-AA2F-46575D0FE645}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAFF095B-361A-4A79-9554-68E6AF822C7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F02AAE6-3F36-4D2B-9E96-3C5EB5D6E110}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F51AF46B-3245-44EB-BE58-9216B08C5AF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E41D48BB-154A-4D10-877D-4D43200AD045}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57604D33-A398-47E2-AB3C-AE5593963607}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0636A931-5C5C-4175-8F45-F94772E49E6D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15712,7 +15712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C61923-D2A9-40EF-8D39-645F1E429539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766B7F34-A282-4611-AE4E-98F38ADCAD60}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16995,18 +16995,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD4CB216-2AC1-450B-9230-CD460600E3A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C27925C-EA9C-431B-8EF0-531C8E9ECBD0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5934EC5C-9AA4-4CE2-BC9B-D728DF5175C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{255E3278-D1BC-41B7-9B8E-394C3C29AFC1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57F4D84A-83FC-4373-8A24-894497FCB6B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A0813BA-5434-4F31-9CF8-B6E7FAE70816}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28565E1F-6692-48E5-98BC-362796CD963C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D640EB1-8A7E-4A28-92D7-A7A02C359AA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34CED94E-5BA3-443B-86BB-4560E1FA4AA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9301B20E-7925-45A2-A717-D735404D295E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{806B3FA9-70FC-4AEB-826D-4CEDA1E7AB2B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAF13D5F-CB22-4B4E-9FD6-EF433645E633}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{510EDF2B-B694-4280-BE46-410B6A930E96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2A0D200-3AC2-4793-8D5F-C7173D17D645}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE3E80C7-C9D0-4AAC-AE6A-99FF6C269B47}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB39E200-6F89-4F6A-A350-7EBE52B4D19A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E727D43F-4509-401D-821F-CAFC11F771FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{629C832E-DF05-42CA-B78F-3CE8670EC45F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4264B435-0D5E-4D4A-8948-7004833D36B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF29AD13-23CC-41D2-9285-5D1F85D8D503}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4832562-E98E-4CCB-9FBE-852C666F0B1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87517D9C-17AC-457F-A878-AA81021DFD41}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDBB844C-DFB1-472B-BE6B-609D756DEF30}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B572A550-A43F-41BB-A790-8228792D3A06}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
